--- a/Excel/ZuoQiConfig.xlsx
+++ b/Excel/ZuoQiConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD9B8B-4353-4E41-9A36-92A6066114C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D1701-357B-4DB0-B905-31AAA7A3377E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,122 +730,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:P19"/>
+  <dimension ref="C3:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="28.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="23.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="23.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>3</v>
@@ -860,386 +863,383 @@
         <v>3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="5">
+    </row>
+    <row r="6" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="5">
         <v>10001</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="5">
+        <v>10001</v>
+      </c>
       <c r="F6" s="5">
+        <v>10002</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1100</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8">
         <v>10001</v>
       </c>
-      <c r="G6" s="5">
-        <v>10002</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1100</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="F7" s="8">
+        <v>10003</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D7" s="8">
-        <v>10002</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="N7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8">
+      <c r="E8" s="8">
         <v>10001</v>
       </c>
-      <c r="G7" s="8">
-        <v>10003</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="5">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1200</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="F8" s="8">
+        <v>10004</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="5">
+        <v>16000</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1300</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" s="8">
-        <v>10003</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8">
+      <c r="E9" s="8">
         <v>10001</v>
       </c>
-      <c r="G8" s="8">
-        <v>10004</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="5">
-        <v>16000</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1300</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="F9" s="8">
+        <v>10005</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="5">
+        <v>20000</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1400</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D9" s="8">
-        <v>10004</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="N9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>10005</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8">
+      <c r="E10" s="8">
         <v>10001</v>
       </c>
-      <c r="G9" s="8">
-        <v>10005</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="5">
-        <v>20000</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1400</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="F10" s="8">
+        <v>10006</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="5">
+        <v>23000</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <v>10006</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10007</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="10">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="5">
+        <v>26000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1600</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D10" s="8">
-        <v>10005</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="N11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <v>10007</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8">
+      <c r="E12" s="8">
         <v>10001</v>
       </c>
-      <c r="G10" s="8">
-        <v>10006</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="5">
-        <v>23000</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1500</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D11" s="8">
-        <v>10006</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F12" s="8">
+        <v>10008</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="5">
+        <v>31000</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1700</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
+        <v>10008</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8">
+      <c r="E13" s="8">
         <v>10001</v>
       </c>
-      <c r="G11" s="8">
-        <v>10007</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="10">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="5">
-        <v>26000</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1600</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D12" s="8">
-        <v>10007</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F13" s="8">
+        <v>10009</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="10">
+        <v>8</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="5">
+        <v>41000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1800</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
+        <v>10009</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E14" s="8">
         <v>10001</v>
       </c>
-      <c r="G12" s="8">
-        <v>10008</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="10">
-        <v>7</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="5">
-        <v>31000</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1700</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D13" s="8">
-        <v>10008</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="F14" s="8">
+        <v>10010</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="10">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="5">
+        <v>46000</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1900</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="8">
+        <v>10010</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8">
+      <c r="E15" s="8">
         <v>10001</v>
       </c>
-      <c r="G13" s="8">
-        <v>10009</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="10">
-        <v>8</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="5">
-        <v>41000</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1800</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D14" s="8">
-        <v>10009</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="8">
-        <v>10001</v>
-      </c>
-      <c r="G14" s="8">
-        <v>10010</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="10">
-        <v>9</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="5">
-        <v>46000</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1900</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D15" s="8">
-        <v>10010</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="8">
-        <v>10001</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="9">
         <v>0</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="10">
+      <c r="H15" s="10">
         <v>10</v>
       </c>
+      <c r="I15" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="J15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="K15" s="5">
+        <v>51000</v>
+      </c>
       <c r="L15" s="5">
-        <v>51000</v>
-      </c>
-      <c r="M15" s="5">
         <v>2000</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="7" t="s">
+      <c r="M15" s="11"/>
+      <c r="N15" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/ZuoQiConfig.xlsx
+++ b/Excel/ZuoQiConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D1701-357B-4DB0-B905-31AAA7A3377E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DA146C-0F40-4C3D-B1D1-055F8984B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -210,71 +210,6 @@
   <si>
     <t>75000</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>六阶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>82500</t>
-  </si>
-  <si>
-    <t>伤害减免+2%</t>
-  </si>
-  <si>
-    <t>七阶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>八阶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率+3%</t>
-  </si>
-  <si>
-    <t>九阶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>110000</t>
-  </si>
-  <si>
-    <t>十阶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>120000</t>
-  </si>
-  <si>
-    <t>攻击提升+3%</t>
   </si>
   <si>
     <t>Id</t>
@@ -393,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,9 +356,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:O19"/>
+  <dimension ref="C3:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -756,7 +688,7 @@
   <sheetData>
     <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -912,8 +844,8 @@
       <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8">
-        <v>10001</v>
+      <c r="E7" s="5">
+        <v>10002</v>
       </c>
       <c r="F7" s="8">
         <v>10003</v>
@@ -950,8 +882,8 @@
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8">
-        <v>10001</v>
+      <c r="E8" s="5">
+        <v>10003</v>
       </c>
       <c r="F8" s="8">
         <v>10004</v>
@@ -986,8 +918,8 @@
       <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8">
-        <v>10001</v>
+      <c r="E9" s="5">
+        <v>10004</v>
       </c>
       <c r="F9" s="8">
         <v>10005</v>
@@ -1024,11 +956,11 @@
       <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8">
-        <v>10001</v>
+      <c r="E10" s="5">
+        <v>10005</v>
       </c>
       <c r="F10" s="8">
-        <v>10006</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>46</v>
@@ -1052,194 +984,16 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
-        <v>10006</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F11" s="8">
-        <v>10007</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="10">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="5">
-        <v>26000</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1600</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
-        <v>10007</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F12" s="8">
-        <v>10008</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="10">
-        <v>7</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="5">
-        <v>31000</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1700</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
-        <v>10008</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F13" s="8">
-        <v>10009</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="10">
-        <v>8</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="5">
-        <v>41000</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1800</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="8">
-        <v>10009</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F14" s="8">
-        <v>10010</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="10">
-        <v>9</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="5">
-        <v>46000</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1900</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="8">
-        <v>10010</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="10">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="5">
-        <v>51000</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
